--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.420170375955992</v>
+        <v>0.4449</v>
       </c>
       <c r="H2">
-        <v>0.420170375955992</v>
+        <v>0.8897999999999999</v>
       </c>
       <c r="I2">
-        <v>0.005392669480493571</v>
+        <v>0.005349488063170693</v>
       </c>
       <c r="J2">
-        <v>0.005392669480493571</v>
+        <v>0.003934578179391879</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>3.23524656555596</v>
+        <v>0.0515145</v>
       </c>
       <c r="N2">
-        <v>3.23524656555596</v>
+        <v>0.103029</v>
       </c>
       <c r="O2">
-        <v>0.2029638330018236</v>
+        <v>0.001471145681204534</v>
       </c>
       <c r="P2">
-        <v>0.2029638330018236</v>
+        <v>0.0009812449722373931</v>
       </c>
       <c r="Q2">
-        <v>1.35935476575998</v>
+        <v>0.02291880105</v>
       </c>
       <c r="R2">
-        <v>1.35935476575998</v>
+        <v>0.09167520419999999</v>
       </c>
       <c r="S2">
-        <v>0.001094516867872928</v>
+        <v>7.869876260788775E-06</v>
       </c>
       <c r="T2">
-        <v>0.001094516867872928</v>
+        <v>3.860785056403237E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.420170375955992</v>
+        <v>0.4449</v>
       </c>
       <c r="H3">
-        <v>0.420170375955992</v>
+        <v>0.8897999999999999</v>
       </c>
       <c r="I3">
-        <v>0.005392669480493571</v>
+        <v>0.005349488063170693</v>
       </c>
       <c r="J3">
-        <v>0.005392669480493571</v>
+        <v>0.003934578179391879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.7047685480081</v>
+        <v>16.93389433333333</v>
       </c>
       <c r="N3">
-        <v>12.7047685480081</v>
+        <v>50.801683</v>
       </c>
       <c r="O3">
-        <v>0.7970361669981765</v>
+        <v>0.4835963760583383</v>
       </c>
       <c r="P3">
-        <v>0.7970361669981765</v>
+        <v>0.4838336393146381</v>
       </c>
       <c r="Q3">
-        <v>5.338167377250426</v>
+        <v>7.533889588899998</v>
       </c>
       <c r="R3">
-        <v>5.338167377250426</v>
+        <v>45.2033375334</v>
       </c>
       <c r="S3">
-        <v>0.004298152612620644</v>
+        <v>0.002586993041116687</v>
       </c>
       <c r="T3">
-        <v>0.004298152612620644</v>
+        <v>0.001903681279703136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9847632747145</v>
+        <v>0.4449</v>
       </c>
       <c r="H4">
-        <v>20.9847632747145</v>
+        <v>0.8897999999999999</v>
       </c>
       <c r="I4">
-        <v>0.2693285841712644</v>
+        <v>0.005349488063170693</v>
       </c>
       <c r="J4">
-        <v>0.2693285841712644</v>
+        <v>0.003934578179391879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.23524656555596</v>
+        <v>17.929651</v>
       </c>
       <c r="N4">
-        <v>3.23524656555596</v>
+        <v>53.788953</v>
       </c>
       <c r="O4">
-        <v>0.2029638330018236</v>
+        <v>0.512033090375614</v>
       </c>
       <c r="P4">
-        <v>0.2029638330018236</v>
+        <v>0.512284305323389</v>
       </c>
       <c r="Q4">
-        <v>67.89088331352492</v>
+        <v>7.976901729899999</v>
       </c>
       <c r="R4">
-        <v>67.89088331352492</v>
+        <v>47.8614103794</v>
       </c>
       <c r="S4">
-        <v>0.0546639617803541</v>
+        <v>0.002739114904912748</v>
       </c>
       <c r="T4">
-        <v>0.0546639617803541</v>
+        <v>0.002015622649370333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.9847632747145</v>
+        <v>0.4449</v>
       </c>
       <c r="H5">
-        <v>20.9847632747145</v>
+        <v>0.8897999999999999</v>
       </c>
       <c r="I5">
-        <v>0.2693285841712644</v>
+        <v>0.005349488063170693</v>
       </c>
       <c r="J5">
-        <v>0.2693285841712644</v>
+        <v>0.003934578179391879</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>12.7047685480081</v>
+        <v>0.1015266666666667</v>
       </c>
       <c r="N5">
-        <v>12.7047685480081</v>
+        <v>0.30458</v>
       </c>
       <c r="O5">
-        <v>0.7970361669981765</v>
+        <v>0.002899387884843278</v>
       </c>
       <c r="P5">
-        <v>0.7970361669981765</v>
+        <v>0.002900810389735562</v>
       </c>
       <c r="Q5">
-        <v>266.6065604399882</v>
+        <v>0.045169214</v>
       </c>
       <c r="R5">
-        <v>266.6065604399882</v>
+        <v>0.271015284</v>
       </c>
       <c r="S5">
-        <v>0.2146646223909103</v>
+        <v>1.551024088047084E-05</v>
       </c>
       <c r="T5">
-        <v>0.2146646223909103</v>
+        <v>1.14134652620068E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,184 +782,184 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2384062061032</v>
+        <v>22.27293533333333</v>
       </c>
       <c r="H6">
-        <v>17.2384062061032</v>
+        <v>66.818806</v>
       </c>
       <c r="I6">
-        <v>0.2212460286580039</v>
+        <v>0.2678102982635186</v>
       </c>
       <c r="J6">
-        <v>0.2212460286580039</v>
+        <v>0.2954639425271063</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>3.23524656555596</v>
+        <v>0.0515145</v>
       </c>
       <c r="N6">
-        <v>3.23524656555596</v>
+        <v>0.103029</v>
       </c>
       <c r="O6">
-        <v>0.2029638330018236</v>
+        <v>0.001471145681204534</v>
       </c>
       <c r="P6">
-        <v>0.2029638330018236</v>
+        <v>0.0009812449722373931</v>
       </c>
       <c r="Q6">
-        <v>55.77049447395392</v>
+        <v>1.147379127229</v>
       </c>
       <c r="R6">
-        <v>55.77049447395392</v>
+        <v>6.884274763373999</v>
       </c>
       <c r="S6">
-        <v>0.04490494201285979</v>
+        <v>0.0003939879636724736</v>
       </c>
       <c r="T6">
-        <v>0.04490494201285979</v>
+        <v>0.0002899225080821611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2384062061032</v>
+        <v>22.27293533333333</v>
       </c>
       <c r="H7">
-        <v>17.2384062061032</v>
+        <v>66.818806</v>
       </c>
       <c r="I7">
-        <v>0.2212460286580039</v>
+        <v>0.2678102982635186</v>
       </c>
       <c r="J7">
-        <v>0.2212460286580039</v>
+        <v>0.2954639425271063</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.7047685480081</v>
+        <v>16.93389433333333</v>
       </c>
       <c r="N7">
-        <v>12.7047685480081</v>
+        <v>50.801683</v>
       </c>
       <c r="O7">
-        <v>0.7970361669981765</v>
+        <v>0.4835963760583383</v>
       </c>
       <c r="P7">
-        <v>0.7970361669981765</v>
+        <v>0.4838336393146381</v>
       </c>
       <c r="Q7">
-        <v>219.0099609850876</v>
+        <v>377.1675334278331</v>
       </c>
       <c r="R7">
-        <v>219.0099609850876</v>
+        <v>3394.507800850497</v>
       </c>
       <c r="S7">
-        <v>0.1763410866451442</v>
+        <v>0.1295120897113403</v>
       </c>
       <c r="T7">
-        <v>0.1763410866451442</v>
+        <v>0.1429553945991409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8723346857006</v>
+        <v>22.27293533333333</v>
       </c>
       <c r="H8">
-        <v>18.8723346857006</v>
+        <v>66.818806</v>
       </c>
       <c r="I8">
-        <v>0.2422166556927786</v>
+        <v>0.2678102982635186</v>
       </c>
       <c r="J8">
-        <v>0.2422166556927786</v>
+        <v>0.2954639425271063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.23524656555596</v>
+        <v>17.929651</v>
       </c>
       <c r="N8">
-        <v>3.23524656555596</v>
+        <v>53.788953</v>
       </c>
       <c r="O8">
-        <v>0.2029638330018236</v>
+        <v>0.512033090375614</v>
       </c>
       <c r="P8">
-        <v>0.2029638330018236</v>
+        <v>0.512284305323389</v>
       </c>
       <c r="Q8">
-        <v>61.05665597593548</v>
+        <v>399.3459572722353</v>
       </c>
       <c r="R8">
-        <v>61.05665597593548</v>
+        <v>3594.113615450118</v>
       </c>
       <c r="S8">
-        <v>0.04916122085628932</v>
+        <v>0.1371277346542844</v>
       </c>
       <c r="T8">
-        <v>0.04916122085628932</v>
+        <v>0.1513615405456084</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8723346857006</v>
+        <v>22.27293533333333</v>
       </c>
       <c r="H9">
-        <v>18.8723346857006</v>
+        <v>66.818806</v>
       </c>
       <c r="I9">
-        <v>0.2422166556927786</v>
+        <v>0.2678102982635186</v>
       </c>
       <c r="J9">
-        <v>0.2422166556927786</v>
+        <v>0.2954639425271063</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>12.7047685480081</v>
+        <v>0.1015266666666667</v>
       </c>
       <c r="N9">
-        <v>12.7047685480081</v>
+        <v>0.30458</v>
       </c>
       <c r="O9">
-        <v>0.7970361669981765</v>
+        <v>0.002899387884843278</v>
       </c>
       <c r="P9">
-        <v>0.7970361669981765</v>
+        <v>0.002900810389735562</v>
       </c>
       <c r="Q9">
-        <v>239.7686441423713</v>
+        <v>2.261296881275555</v>
       </c>
       <c r="R9">
-        <v>239.7686441423713</v>
+        <v>20.35167193148</v>
       </c>
       <c r="S9">
-        <v>0.1930554348364893</v>
+        <v>0.0007764859342215105</v>
       </c>
       <c r="T9">
-        <v>0.1930554348364893</v>
+        <v>0.0008570848742748609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.637632385678523</v>
+        <v>17.70812766666667</v>
       </c>
       <c r="H10">
-        <v>0.637632385678523</v>
+        <v>53.12438300000001</v>
       </c>
       <c r="I10">
-        <v>0.008183681912841528</v>
+        <v>0.2129229435242438</v>
       </c>
       <c r="J10">
-        <v>0.008183681912841528</v>
+        <v>0.2349090111771824</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>3.23524656555596</v>
+        <v>0.0515145</v>
       </c>
       <c r="N10">
-        <v>3.23524656555596</v>
+        <v>0.103029</v>
       </c>
       <c r="O10">
-        <v>0.2029638330018236</v>
+        <v>0.001471145681204534</v>
       </c>
       <c r="P10">
-        <v>0.2029638330018236</v>
+        <v>0.0009812449722373931</v>
       </c>
       <c r="Q10">
-        <v>2.062897985853695</v>
+        <v>0.9122253426845001</v>
       </c>
       <c r="R10">
-        <v>2.062897985853695</v>
+        <v>5.473352056107001</v>
       </c>
       <c r="S10">
-        <v>0.001660991449098012</v>
+        <v>0.0003132406687950482</v>
       </c>
       <c r="T10">
-        <v>0.001660991449098012</v>
+        <v>0.0002305032861508678</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.637632385678523</v>
+        <v>17.70812766666667</v>
       </c>
       <c r="H11">
-        <v>0.637632385678523</v>
+        <v>53.12438300000001</v>
       </c>
       <c r="I11">
-        <v>0.008183681912841528</v>
+        <v>0.2129229435242438</v>
       </c>
       <c r="J11">
-        <v>0.008183681912841528</v>
+        <v>0.2349090111771824</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7047685480081</v>
+        <v>16.93389433333333</v>
       </c>
       <c r="N11">
-        <v>12.7047685480081</v>
+        <v>50.801683</v>
       </c>
       <c r="O11">
-        <v>0.7970361669981765</v>
+        <v>0.4835963760583383</v>
       </c>
       <c r="P11">
-        <v>0.7970361669981765</v>
+        <v>0.4838336393146381</v>
       </c>
       <c r="Q11">
-        <v>8.10097187875987</v>
+        <v>299.8675627485099</v>
       </c>
       <c r="R11">
-        <v>8.10097187875987</v>
+        <v>2698.808064736589</v>
       </c>
       <c r="S11">
-        <v>0.006522690463743516</v>
+        <v>0.1029687638679985</v>
       </c>
       <c r="T11">
-        <v>0.006522690463743516</v>
+        <v>0.1136568817856592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,861 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.7617919808082</v>
+        <v>17.70812766666667</v>
       </c>
       <c r="H12">
-        <v>19.7617919808082</v>
+        <v>53.12438300000001</v>
       </c>
       <c r="I12">
-        <v>0.253632380084618</v>
+        <v>0.2129229435242438</v>
       </c>
       <c r="J12">
-        <v>0.253632380084618</v>
+        <v>0.2349090111771824</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.23524656555596</v>
+        <v>17.929651</v>
       </c>
       <c r="N12">
-        <v>3.23524656555596</v>
+        <v>53.788953</v>
       </c>
       <c r="O12">
-        <v>0.2029638330018236</v>
+        <v>0.512033090375614</v>
       </c>
       <c r="P12">
-        <v>0.2029638330018236</v>
+        <v>0.512284305323389</v>
       </c>
       <c r="Q12">
-        <v>63.93426963514104</v>
+        <v>317.5005489267777</v>
       </c>
       <c r="R12">
-        <v>63.93426963514104</v>
+        <v>2857.504940340999</v>
       </c>
       <c r="S12">
-        <v>0.05147820003534945</v>
+        <v>0.1090235927845909</v>
       </c>
       <c r="T12">
-        <v>0.05147820003534945</v>
+        <v>0.1203401996051071</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.70812766666667</v>
+      </c>
+      <c r="H13">
+        <v>53.12438300000001</v>
+      </c>
+      <c r="I13">
+        <v>0.2129229435242438</v>
+      </c>
+      <c r="J13">
+        <v>0.2349090111771824</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.30458</v>
+      </c>
+      <c r="O13">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P13">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q13">
+        <v>1.797847174904445</v>
+      </c>
+      <c r="R13">
+        <v>16.18062457414</v>
+      </c>
+      <c r="S13">
+        <v>0.0006173462028593619</v>
+      </c>
+      <c r="T13">
+        <v>0.0006814265002652782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>19.18304766666666</v>
+      </c>
+      <c r="H14">
+        <v>57.54914299999999</v>
+      </c>
+      <c r="I14">
+        <v>0.2306574162914537</v>
+      </c>
+      <c r="J14">
+        <v>0.254474715992923</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0515145</v>
+      </c>
+      <c r="N14">
+        <v>0.103029</v>
+      </c>
+      <c r="O14">
+        <v>0.001471145681204534</v>
+      </c>
+      <c r="P14">
+        <v>0.0009812449722373931</v>
+      </c>
+      <c r="Q14">
+        <v>0.9882051090244998</v>
+      </c>
+      <c r="R14">
+        <v>5.929230654146999</v>
+      </c>
+      <c r="S14">
+        <v>0.0003393306618149685</v>
+      </c>
+      <c r="T14">
+        <v>0.0002497020356295942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>19.18304766666666</v>
+      </c>
+      <c r="H15">
+        <v>57.54914299999999</v>
+      </c>
+      <c r="I15">
+        <v>0.2306574162914537</v>
+      </c>
+      <c r="J15">
+        <v>0.254474715992923</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.93389433333333</v>
+      </c>
+      <c r="N15">
+        <v>50.801683</v>
+      </c>
+      <c r="O15">
+        <v>0.4835963760583383</v>
+      </c>
+      <c r="P15">
+        <v>0.4838336393146381</v>
+      </c>
+      <c r="Q15">
+        <v>324.8437021786298</v>
+      </c>
+      <c r="R15">
+        <v>2923.593319607668</v>
+      </c>
+      <c r="S15">
+        <v>0.1115450906295265</v>
+      </c>
+      <c r="T15">
+        <v>0.1231234279524149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.18304766666666</v>
+      </c>
+      <c r="H16">
+        <v>57.54914299999999</v>
+      </c>
+      <c r="I16">
+        <v>0.2306574162914537</v>
+      </c>
+      <c r="J16">
+        <v>0.254474715992923</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.929651</v>
+      </c>
+      <c r="N16">
+        <v>53.788953</v>
+      </c>
+      <c r="O16">
+        <v>0.512033090375614</v>
+      </c>
+      <c r="P16">
+        <v>0.512284305323389</v>
+      </c>
+      <c r="Q16">
+        <v>343.9453497796976</v>
+      </c>
+      <c r="R16">
+        <v>3095.508148017278</v>
+      </c>
+      <c r="S16">
+        <v>0.1181042296817675</v>
+      </c>
+      <c r="T16">
+        <v>0.1303634031048013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.18304766666666</v>
+      </c>
+      <c r="H17">
+        <v>57.54914299999999</v>
+      </c>
+      <c r="I17">
+        <v>0.2306574162914537</v>
+      </c>
+      <c r="J17">
+        <v>0.254474715992923</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.30458</v>
+      </c>
+      <c r="O17">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P17">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q17">
+        <v>1.947590886104444</v>
+      </c>
+      <c r="R17">
+        <v>17.52831797494</v>
+      </c>
+      <c r="S17">
+        <v>0.0006687653183446933</v>
+      </c>
+      <c r="T17">
+        <v>0.0007381829000772775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6509819999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.952946</v>
+      </c>
+      <c r="I18">
+        <v>0.007827422877812957</v>
+      </c>
+      <c r="J18">
+        <v>0.008635669495539056</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.0515145</v>
+      </c>
+      <c r="N18">
+        <v>0.103029</v>
+      </c>
+      <c r="O18">
+        <v>0.001471145681204534</v>
+      </c>
+      <c r="P18">
+        <v>0.0009812449722373931</v>
+      </c>
+      <c r="Q18">
+        <v>0.033535012239</v>
+      </c>
+      <c r="R18">
+        <v>0.201210073434</v>
+      </c>
+      <c r="S18">
+        <v>1.15152793616561E-05</v>
+      </c>
+      <c r="T18">
+        <v>8.473707274401523E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6509819999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.952946</v>
+      </c>
+      <c r="I19">
+        <v>0.007827422877812957</v>
+      </c>
+      <c r="J19">
+        <v>0.008635669495539056</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.93389433333333</v>
+      </c>
+      <c r="N19">
+        <v>50.801683</v>
+      </c>
+      <c r="O19">
+        <v>0.4835963760583383</v>
+      </c>
+      <c r="P19">
+        <v>0.4838336393146381</v>
+      </c>
+      <c r="Q19">
+        <v>11.023660400902</v>
+      </c>
+      <c r="R19">
+        <v>99.21294360811798</v>
+      </c>
+      <c r="S19">
+        <v>0.003785313337586475</v>
+      </c>
+      <c r="T19">
+        <v>0.004178227399945066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6509819999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.952946</v>
+      </c>
+      <c r="I20">
+        <v>0.007827422877812957</v>
+      </c>
+      <c r="J20">
+        <v>0.008635669495539056</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.929651</v>
+      </c>
+      <c r="N20">
+        <v>53.788953</v>
+      </c>
+      <c r="O20">
+        <v>0.512033090375614</v>
+      </c>
+      <c r="P20">
+        <v>0.512284305323389</v>
+      </c>
+      <c r="Q20">
+        <v>11.671880067282</v>
+      </c>
+      <c r="R20">
+        <v>105.046920605538</v>
+      </c>
+      <c r="S20">
+        <v>0.00400789952580335</v>
+      </c>
+      <c r="T20">
+        <v>0.004423917948524606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6509819999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.952946</v>
+      </c>
+      <c r="I21">
+        <v>0.007827422877812957</v>
+      </c>
+      <c r="J21">
+        <v>0.008635669495539056</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.30458</v>
+      </c>
+      <c r="O21">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P21">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q21">
+        <v>0.06609203252</v>
+      </c>
+      <c r="R21">
+        <v>0.59482829268</v>
+      </c>
+      <c r="S21">
+        <v>2.269473506147599E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.505043979498216E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>22.906844</v>
+      </c>
+      <c r="H22">
+        <v>45.813688</v>
+      </c>
+      <c r="I22">
+        <v>0.2754324309798004</v>
+      </c>
+      <c r="J22">
+        <v>0.2025820826278575</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.0515145</v>
+      </c>
+      <c r="N22">
+        <v>0.103029</v>
+      </c>
+      <c r="O22">
+        <v>0.001471145681204534</v>
+      </c>
+      <c r="P22">
+        <v>0.0009812449722373931</v>
+      </c>
+      <c r="Q22">
+        <v>1.180034615238</v>
+      </c>
+      <c r="R22">
+        <v>4.720138460952</v>
+      </c>
+      <c r="S22">
+        <v>0.0004052012312995994</v>
+      </c>
+      <c r="T22">
+        <v>0.0001987826500439653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>22.906844</v>
+      </c>
+      <c r="H23">
+        <v>45.813688</v>
+      </c>
+      <c r="I23">
+        <v>0.2754324309798004</v>
+      </c>
+      <c r="J23">
+        <v>0.2025820826278575</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.93389433333333</v>
+      </c>
+      <c r="N23">
+        <v>50.801683</v>
+      </c>
+      <c r="O23">
+        <v>0.4835963760583383</v>
+      </c>
+      <c r="P23">
+        <v>0.4838336393146381</v>
+      </c>
+      <c r="Q23">
+        <v>387.9020758061506</v>
+      </c>
+      <c r="R23">
+        <v>2327.412454836904</v>
+      </c>
+      <c r="S23">
+        <v>0.1331981254707699</v>
+      </c>
+      <c r="T23">
+        <v>0.09801602629777501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.7617919808082</v>
-      </c>
-      <c r="H13">
-        <v>19.7617919808082</v>
-      </c>
-      <c r="I13">
-        <v>0.253632380084618</v>
-      </c>
-      <c r="J13">
-        <v>0.253632380084618</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.7047685480081</v>
-      </c>
-      <c r="N13">
-        <v>12.7047685480081</v>
-      </c>
-      <c r="O13">
-        <v>0.7970361669981765</v>
-      </c>
-      <c r="P13">
-        <v>0.7970361669981765</v>
-      </c>
-      <c r="Q13">
-        <v>251.0689932100507</v>
-      </c>
-      <c r="R13">
-        <v>251.0689932100507</v>
-      </c>
-      <c r="S13">
-        <v>0.2021541800492686</v>
-      </c>
-      <c r="T13">
-        <v>0.2021541800492686</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>22.906844</v>
+      </c>
+      <c r="H24">
+        <v>45.813688</v>
+      </c>
+      <c r="I24">
+        <v>0.2754324309798004</v>
+      </c>
+      <c r="J24">
+        <v>0.2025820826278575</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>17.929651</v>
+      </c>
+      <c r="N24">
+        <v>53.788953</v>
+      </c>
+      <c r="O24">
+        <v>0.512033090375614</v>
+      </c>
+      <c r="P24">
+        <v>0.512284305323389</v>
+      </c>
+      <c r="Q24">
+        <v>410.711718431444</v>
+      </c>
+      <c r="R24">
+        <v>2464.270310588664</v>
+      </c>
+      <c r="S24">
+        <v>0.1410305188242552</v>
+      </c>
+      <c r="T24">
+        <v>0.1037796214699774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>22.906844</v>
+      </c>
+      <c r="H25">
+        <v>45.813688</v>
+      </c>
+      <c r="I25">
+        <v>0.2754324309798004</v>
+      </c>
+      <c r="J25">
+        <v>0.2025820826278575</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.1015266666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.30458</v>
+      </c>
+      <c r="O25">
+        <v>0.002899387884843278</v>
+      </c>
+      <c r="P25">
+        <v>0.002900810389735562</v>
+      </c>
+      <c r="Q25">
+        <v>2.325655515173333</v>
+      </c>
+      <c r="R25">
+        <v>13.95393309104</v>
+      </c>
+      <c r="S25">
+        <v>0.0007985854534757656</v>
+      </c>
+      <c r="T25">
+        <v>0.0005876522100611571</v>
       </c>
     </row>
   </sheetData>
